--- a/output/ReadsPerSite_Taxon_FinalFilter_12S_13Sept2023.xlsx
+++ b/output/ReadsPerSite_Taxon_FinalFilter_12S_13Sept2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VANWYNGAARDENMA\Documents\eDNA\Musquash\12S\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JEFFERYN\Documents\GitHub\musquash_mpa\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC572D9-5A85-46E7-8ABE-7F4B1D3C50DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F7B7CA-8376-42A9-8AB0-77DCBE3C8736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-285" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reads_PerSite_Taxon" sheetId="1" r:id="rId1"/>
@@ -251,9 +251,6 @@
     <t>Lycodes</t>
   </si>
   <si>
-    <t>Wolffish (Lycodes)</t>
-  </si>
-  <si>
     <t>Alosa</t>
   </si>
   <si>
@@ -341,9 +338,6 @@
     <t>Urophycis</t>
   </si>
   <si>
-    <t>Hakes (Urophysic)</t>
-  </si>
-  <si>
     <t>Urophycis chuss</t>
   </si>
   <si>
@@ -489,6 +483,12 @@
   </si>
   <si>
     <t>Hake</t>
+  </si>
+  <si>
+    <t>Hakes (Urophycis)</t>
+  </si>
+  <si>
+    <t>Eelpouts (Lycodes)</t>
   </si>
 </sst>
 </file>
@@ -1113,21 +1113,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1157,6 +1142,21 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1523,11 +1523,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,63 +1559,63 @@
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B1" s="19"/>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="26"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="36"/>
     </row>
     <row r="2" spans="1:51" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -3637,7 +3637,7 @@
         <v>75</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -3789,10 +3789,10 @@
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -3944,10 +3944,10 @@
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>79</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>80</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -4099,10 +4099,10 @@
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="C18" s="7">
         <v>766785</v>
@@ -4254,10 +4254,10 @@
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>84</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -4409,10 +4409,10 @@
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>86</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4564,10 +4564,10 @@
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>88</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -4719,10 +4719,10 @@
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -4874,10 +4874,10 @@
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -5029,10 +5029,10 @@
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -5184,10 +5184,10 @@
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>96</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -5339,10 +5339,10 @@
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -5494,10 +5494,10 @@
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -5649,10 +5649,10 @@
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="C28" s="7">
         <v>0</v>
@@ -5804,10 +5804,10 @@
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -5959,10 +5959,10 @@
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="C30" s="7">
         <v>0</v>
@@ -6114,10 +6114,10 @@
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -6269,10 +6269,10 @@
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -6424,10 +6424,10 @@
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -6596,8 +6596,8 @@
   </sheetPr>
   <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK17" sqref="AK17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6617,7 +6617,7 @@
     <row r="1" spans="1:31" s="10" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="11"/>
       <c r="C1" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
@@ -6630,7 +6630,7 @@
       <c r="L1" s="12"/>
       <c r="M1" s="13"/>
       <c r="N1" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
@@ -6641,7 +6641,7 @@
       <c r="U1" s="12"/>
       <c r="V1" s="13"/>
       <c r="W1" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="X1" s="12"/>
       <c r="Y1" s="12"/>
@@ -6649,7 +6649,7 @@
       <c r="AA1" s="12"/>
       <c r="AB1" s="13"/>
       <c r="AC1" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AD1" s="12"/>
       <c r="AE1" s="12"/>
@@ -6657,66 +6657,66 @@
     <row r="2" spans="1:31" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="S2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="U2" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Y2" s="8">
         <v>302</v>
@@ -6729,384 +6729,384 @@
       </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE2" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
+        <v>82</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
+        <v>88</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
+        <v>86</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
     </row>
     <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
+        <v>92</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
     </row>
     <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
+        <v>94</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
     </row>
     <row r="8" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
+        <v>96</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
     </row>
     <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="30"/>
+        <v>80</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="25"/>
     </row>
     <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
+        <v>84</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
     </row>
     <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
+        <v>90</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
     </row>
     <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="35"/>
-      <c r="AE12" s="28"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="23"/>
     </row>
     <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -7115,72 +7115,72 @@
       <c r="B13" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="35"/>
-      <c r="AE13" s="28"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="23"/>
     </row>
     <row r="14" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="35"/>
-      <c r="AE14" s="28"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="23"/>
     </row>
     <row r="15" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -7189,109 +7189,109 @@
       <c r="B15" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
     </row>
     <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
     </row>
     <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="31"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
     </row>
     <row r="18" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -7300,220 +7300,220 @@
       <c r="B18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
     </row>
     <row r="19" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
+        <v>76</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
     </row>
     <row r="20" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
+        <v>100</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
     </row>
     <row r="21" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
+        <v>98</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
     </row>
     <row r="22" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="30"/>
+        <v>78</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="25"/>
     </row>
     <row r="23" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
+        <v>102</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
     </row>
     <row r="24" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -7522,35 +7522,35 @@
       <c r="B24" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
     </row>
     <row r="25" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
@@ -7559,35 +7559,35 @@
       <c r="B25" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
     </row>
     <row r="26" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -7596,294 +7596,294 @@
       <c r="B26" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="28"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
     </row>
     <row r="27" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="30"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="25"/>
     </row>
     <row r="28" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="30"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="25"/>
     </row>
     <row r="29" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="36"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="30"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="25"/>
     </row>
     <row r="30" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="28"/>
+        <v>107</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
     </row>
     <row r="31" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="28"/>
+        <v>109</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="23"/>
+      <c r="AE31" s="23"/>
     </row>
     <row r="32" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
+        <v>105</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="23"/>
+      <c r="AE32" s="23"/>
     </row>
     <row r="33" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="28"/>
+        <v>104</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
